--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\API_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomaiton2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
   <si>
     <t>2IE</t>
   </si>
@@ -378,10 +378,7 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions</t>
   </si>
   <si>
-    <t>4432447994</t>
-  </si>
-  <si>
-    <t>onreg-21213</t>
+    <t>ONREG-17965</t>
   </si>
   <si>
     <t>BAN</t>
@@ -396,19 +393,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>05409669121</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>id instance of type BillingAccountNumberType</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t/>
+    <t>103562999</t>
   </si>
 </sst>
 </file>
@@ -461,7 +446,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,16 +506,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -539,6 +527,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -822,321 +819,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="11.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="5" width="11.28515625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="11.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="B60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="B66"/>
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1148,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,16 +884,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1206,6 +929,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="215.28515625" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1289,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A25"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,17 +1079,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1701,172 +1427,172 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2073,7 +1799,7 @@
       <c r="K8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2108,7 +1834,7 @@
       <c r="K9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2143,7 +1869,7 @@
       <c r="K10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2364,72 +2090,72 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>100210943</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>100210943</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2447,7 +2173,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,10 +2183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2471,7 +2197,7 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2482,7 +2208,7 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2493,7 +2219,7 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2504,7 +2230,7 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2515,32 +2241,32 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
     </row>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
   <si>
     <t>2IE</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>103562999</t>
+  </si>
+  <si>
+    <t>06681029121</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>05409669121</t>
   </si>
 </sst>
 </file>
@@ -852,6 +861,12 @@
       <c r="B2" t="s">
         <v>116</v>
       </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -859,6 +874,12 @@
       </c>
       <c r="B3" t="s">
         <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="145">
   <si>
     <t>2IE</t>
   </si>
@@ -366,19 +366,34 @@
     <t>planCode,name,subscriptionId ,macInd</t>
   </si>
   <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>AugUser040</t>
-  </si>
-  <si>
     <t>id,status</t>
   </si>
   <si>
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions</t>
   </si>
   <si>
-    <t>ONREG-17965</t>
+    <t>ONREG-20535</t>
+  </si>
+  <si>
+    <t>ONREG-18520</t>
+  </si>
+  <si>
+    <t>ONREG-19643</t>
+  </si>
+  <si>
+    <t>ONREG-22679</t>
+  </si>
+  <si>
+    <t>ONREG-22710</t>
+  </si>
+  <si>
+    <t>ONREG-25767</t>
+  </si>
+  <si>
+    <t>ONREG-21172</t>
+  </si>
+  <si>
+    <t>ONREG-26222</t>
   </si>
   <si>
     <t>BAN</t>
@@ -393,16 +408,61 @@
     <t>status</t>
   </si>
   <si>
-    <t>103562999</t>
-  </si>
-  <si>
-    <t>06681029121</t>
+    <t>107198053</t>
+  </si>
+  <si>
+    <t>08072919121</t>
   </si>
   <si>
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>05409669121</t>
+    <t>124473304</t>
+  </si>
+  <si>
+    <t>08317211011</t>
+  </si>
+  <si>
+    <t>169068211</t>
+  </si>
+  <si>
+    <t>03085439121</t>
+  </si>
+  <si>
+    <t>225356050</t>
+  </si>
+  <si>
+    <t>21545071011</t>
+  </si>
+  <si>
+    <t>244834015</t>
+  </si>
+  <si>
+    <t>00130829021</t>
+  </si>
+  <si>
+    <t>114478789</t>
+  </si>
+  <si>
+    <t>13430032021</t>
+  </si>
+  <si>
+    <t>172500199</t>
+  </si>
+  <si>
+    <t>35296929121</t>
+  </si>
+  <si>
+    <t>205653581</t>
+  </si>
+  <si>
+    <t>15456191021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -410,7 +470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,8 +514,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,13 +602,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,58 +894,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="11.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="15.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -923,13 +1087,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="194">
   <si>
     <t>2IE</t>
   </si>
@@ -372,28 +372,79 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions</t>
   </si>
   <si>
-    <t>ONREG-20535</t>
-  </si>
-  <si>
-    <t>ONREG-18520</t>
-  </si>
-  <si>
-    <t>ONREG-19643</t>
-  </si>
-  <si>
-    <t>ONREG-22679</t>
-  </si>
-  <si>
-    <t>ONREG-22710</t>
-  </si>
-  <si>
-    <t>ONREG-25767</t>
-  </si>
-  <si>
-    <t>ONREG-21172</t>
-  </si>
-  <si>
-    <t>ONREG-26222</t>
+    <t>ONREG-23902</t>
+  </si>
+  <si>
+    <t>ONREG-17938</t>
+  </si>
+  <si>
+    <t>ONREG-22294</t>
+  </si>
+  <si>
+    <t>ONREG-18131</t>
+  </si>
+  <si>
+    <t>ONREG-18240</t>
+  </si>
+  <si>
+    <t>ONREG-25876</t>
+  </si>
+  <si>
+    <t>ONREG-25888</t>
+  </si>
+  <si>
+    <t>ONREG-19423</t>
+  </si>
+  <si>
+    <t>ONREG-19642</t>
+  </si>
+  <si>
+    <t>ONREG-19769</t>
+  </si>
+  <si>
+    <t>ONREG-19795</t>
+  </si>
+  <si>
+    <t>ONREG-19814</t>
+  </si>
+  <si>
+    <t>ONREG-19836</t>
+  </si>
+  <si>
+    <t>ONREG-18965</t>
+  </si>
+  <si>
+    <t>ONREG-23937</t>
+  </si>
+  <si>
+    <t>ONREG-20446</t>
+  </si>
+  <si>
+    <t>ONREG-20191</t>
+  </si>
+  <si>
+    <t>ONREG-12902</t>
+  </si>
+  <si>
+    <t>ONREG-12961</t>
+  </si>
+  <si>
+    <t>ONREG-13268</t>
+  </si>
+  <si>
+    <t>ONREG-13351</t>
+  </si>
+  <si>
+    <t>ONREG-13415</t>
+  </si>
+  <si>
+    <t>ONREG-12927</t>
+  </si>
+  <si>
+    <t>ONREG-13024</t>
+  </si>
+  <si>
+    <t>ONREG-13036</t>
   </si>
   <si>
     <t>BAN</t>
@@ -408,61 +459,157 @@
     <t>status</t>
   </si>
   <si>
-    <t>107198053</t>
-  </si>
-  <si>
-    <t>08072919121</t>
+    <t>100147025</t>
+  </si>
+  <si>
+    <t>64810769121</t>
   </si>
   <si>
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>124473304</t>
-  </si>
-  <si>
-    <t>08317211011</t>
-  </si>
-  <si>
-    <t>169068211</t>
-  </si>
-  <si>
-    <t>03085439121</t>
-  </si>
-  <si>
-    <t>225356050</t>
-  </si>
-  <si>
-    <t>21545071011</t>
-  </si>
-  <si>
-    <t>244834015</t>
-  </si>
-  <si>
-    <t>00130829021</t>
-  </si>
-  <si>
-    <t>114478789</t>
-  </si>
-  <si>
-    <t>13430032021</t>
-  </si>
-  <si>
-    <t>172500199</t>
-  </si>
-  <si>
-    <t>35296929121</t>
-  </si>
-  <si>
-    <t>205653581</t>
-  </si>
-  <si>
-    <t>15456191021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>101487374</t>
+  </si>
+  <si>
+    <t>07782833121</t>
+  </si>
+  <si>
+    <t>102440213</t>
+  </si>
+  <si>
+    <t>23181610</t>
+  </si>
+  <si>
+    <t>110062018</t>
+  </si>
+  <si>
+    <t>00300769121</t>
+  </si>
+  <si>
+    <t>127178114</t>
+  </si>
+  <si>
+    <t>85415732011</t>
+  </si>
+  <si>
+    <t>139159854</t>
+  </si>
+  <si>
+    <t>09197321011</t>
+  </si>
+  <si>
+    <t>140389560</t>
+  </si>
+  <si>
+    <t>26262461011</t>
+  </si>
+  <si>
+    <t>137199660</t>
+  </si>
+  <si>
+    <t>17969657121</t>
+  </si>
+  <si>
+    <t>100581355</t>
+  </si>
+  <si>
+    <t>45630660011</t>
+  </si>
+  <si>
+    <t>135142501</t>
+  </si>
+  <si>
+    <t>03757000221</t>
+  </si>
+  <si>
+    <t>102522400</t>
+  </si>
+  <si>
+    <t>30120160221</t>
+  </si>
+  <si>
+    <t>109514216</t>
+  </si>
+  <si>
+    <t>12487468121</t>
+  </si>
+  <si>
+    <t>119002359</t>
+  </si>
+  <si>
+    <t>02550689121</t>
+  </si>
+  <si>
+    <t>108482050</t>
+  </si>
+  <si>
+    <t>30412792121</t>
+  </si>
+  <si>
+    <t>163203979</t>
+  </si>
+  <si>
+    <t>15887256121</t>
+  </si>
+  <si>
+    <t>146457800</t>
+  </si>
+  <si>
+    <t>32958100221</t>
+  </si>
+  <si>
+    <t>119592056</t>
+  </si>
+  <si>
+    <t>12792592121</t>
+  </si>
+  <si>
+    <t>164660957</t>
+  </si>
+  <si>
+    <t>12243435121</t>
+  </si>
+  <si>
+    <t>113526468</t>
+  </si>
+  <si>
+    <t>09212619021</t>
+  </si>
+  <si>
+    <t>150744017</t>
+  </si>
+  <si>
+    <t>19741512011</t>
+  </si>
+  <si>
+    <t>131704213</t>
+  </si>
+  <si>
+    <t>33674042011</t>
+  </si>
+  <si>
+    <t>131478014</t>
+  </si>
+  <si>
+    <t>08509727121</t>
+  </si>
+  <si>
+    <t>139637466</t>
+  </si>
+  <si>
+    <t>13495060221</t>
+  </si>
+  <si>
+    <t>142320256</t>
+  </si>
+  <si>
+    <t>07668669121</t>
+  </si>
+  <si>
+    <t>124700667</t>
+  </si>
+  <si>
+    <t>09297122221</t>
   </si>
 </sst>
 </file>
@@ -470,7 +617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,18 +660,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -581,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -602,15 +737,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -894,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,142 +1036,374 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>124700667</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
   <si>
     <t>2IE</t>
   </si>
@@ -372,79 +372,73 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions</t>
   </si>
   <si>
-    <t>ONREG-23902</t>
-  </si>
-  <si>
-    <t>ONREG-17938</t>
-  </si>
-  <si>
-    <t>ONREG-22294</t>
-  </si>
-  <si>
-    <t>ONREG-18131</t>
-  </si>
-  <si>
-    <t>ONREG-18240</t>
-  </si>
-  <si>
-    <t>ONREG-25876</t>
-  </si>
-  <si>
-    <t>ONREG-25888</t>
-  </si>
-  <si>
-    <t>ONREG-19423</t>
-  </si>
-  <si>
-    <t>ONREG-19642</t>
-  </si>
-  <si>
-    <t>ONREG-19769</t>
-  </si>
-  <si>
-    <t>ONREG-19795</t>
-  </si>
-  <si>
-    <t>ONREG-19814</t>
-  </si>
-  <si>
-    <t>ONREG-19836</t>
-  </si>
-  <si>
-    <t>ONREG-18965</t>
-  </si>
-  <si>
-    <t>ONREG-23937</t>
-  </si>
-  <si>
-    <t>ONREG-20446</t>
-  </si>
-  <si>
-    <t>ONREG-20191</t>
-  </si>
-  <si>
-    <t>ONREG-12902</t>
+    <t>434349902</t>
+  </si>
+  <si>
+    <t>AugUser040</t>
+  </si>
+  <si>
+    <t>4432447994</t>
+  </si>
+  <si>
+    <t>onreg-21213</t>
+  </si>
+  <si>
+    <t>ONREG-18091</t>
+  </si>
+  <si>
+    <t>ONREG-18095</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/accounts/v1/accounts/$BAN/financial-status?realTimeInd=false&amp;isGuestPay=false</t>
+  </si>
+  <si>
+    <t>financialstatus</t>
+  </si>
+  <si>
+    <t>ONREG-25212</t>
+  </si>
+  <si>
+    <t>ONREG-25329</t>
+  </si>
+  <si>
+    <t>ONREG-25213</t>
+  </si>
+  <si>
+    <t>ONREG-25783</t>
+  </si>
+  <si>
+    <t>future-payments</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false</t>
+  </si>
+  <si>
+    <t>103341135</t>
+  </si>
+  <si>
+    <t>104404406</t>
+  </si>
+  <si>
+    <t>118789584</t>
+  </si>
+  <si>
+    <t>127188714</t>
+  </si>
+  <si>
+    <t>118919630</t>
+  </si>
+  <si>
+    <t>119134450</t>
   </si>
   <si>
     <t>ONREG-12961</t>
   </si>
   <si>
-    <t>ONREG-13268</t>
-  </si>
-  <si>
-    <t>ONREG-13351</t>
-  </si>
-  <si>
-    <t>ONREG-13415</t>
-  </si>
-  <si>
-    <t>ONREG-12927</t>
-  </si>
-  <si>
-    <t>ONREG-13024</t>
-  </si>
-  <si>
-    <t>ONREG-13036</t>
+    <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true</t>
+  </si>
+  <si>
+    <t>payment-methods</t>
   </si>
   <si>
     <t>BAN</t>
@@ -459,157 +453,16 @@
     <t>status</t>
   </si>
   <si>
-    <t>100147025</t>
-  </si>
-  <si>
-    <t>64810769121</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>101487374</t>
-  </si>
-  <si>
-    <t>07782833121</t>
-  </si>
-  <si>
-    <t>102440213</t>
-  </si>
-  <si>
-    <t>23181610</t>
-  </si>
-  <si>
-    <t>110062018</t>
-  </si>
-  <si>
-    <t>00300769121</t>
-  </si>
-  <si>
-    <t>127178114</t>
-  </si>
-  <si>
-    <t>85415732011</t>
-  </si>
-  <si>
-    <t>139159854</t>
-  </si>
-  <si>
-    <t>09197321011</t>
-  </si>
-  <si>
-    <t>140389560</t>
-  </si>
-  <si>
-    <t>26262461011</t>
-  </si>
-  <si>
-    <t>137199660</t>
-  </si>
-  <si>
-    <t>17969657121</t>
-  </si>
-  <si>
-    <t>100581355</t>
-  </si>
-  <si>
-    <t>45630660011</t>
-  </si>
-  <si>
-    <t>135142501</t>
-  </si>
-  <si>
-    <t>03757000221</t>
-  </si>
-  <si>
-    <t>102522400</t>
-  </si>
-  <si>
-    <t>30120160221</t>
-  </si>
-  <si>
-    <t>109514216</t>
-  </si>
-  <si>
-    <t>12487468121</t>
-  </si>
-  <si>
-    <t>119002359</t>
-  </si>
-  <si>
-    <t>02550689121</t>
-  </si>
-  <si>
-    <t>108482050</t>
-  </si>
-  <si>
-    <t>30412792121</t>
-  </si>
-  <si>
-    <t>163203979</t>
-  </si>
-  <si>
-    <t>15887256121</t>
-  </si>
-  <si>
-    <t>146457800</t>
-  </si>
-  <si>
-    <t>32958100221</t>
-  </si>
-  <si>
-    <t>119592056</t>
-  </si>
-  <si>
-    <t>12792592121</t>
-  </si>
-  <si>
-    <t>164660957</t>
-  </si>
-  <si>
-    <t>12243435121</t>
+    <t/>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>{</t>
   </si>
   <si>
     <t>113526468</t>
-  </si>
-  <si>
-    <t>09212619021</t>
-  </si>
-  <si>
-    <t>150744017</t>
-  </si>
-  <si>
-    <t>19741512011</t>
-  </si>
-  <si>
-    <t>131704213</t>
-  </si>
-  <si>
-    <t>33674042011</t>
-  </si>
-  <si>
-    <t>131478014</t>
-  </si>
-  <si>
-    <t>08509727121</t>
-  </si>
-  <si>
-    <t>139637466</t>
-  </si>
-  <si>
-    <t>13495060221</t>
-  </si>
-  <si>
-    <t>142320256</t>
-  </si>
-  <si>
-    <t>07668669121</t>
-  </si>
-  <si>
-    <t>124700667</t>
-  </si>
-  <si>
-    <t>09297122221</t>
   </si>
 </sst>
 </file>
@@ -617,7 +470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +513,13 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -716,7 +576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,8 +597,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1022,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,374 +904,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" t="s">
-        <v>142</v>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>124700667</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1414,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1062,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>113</v>
@@ -1454,14 +1072,49 @@
       </c>
       <c r="D2" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomaiton2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomaiton\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
     <sheet name="GUIDELINES" sheetId="3" r:id="rId7"/>
+    <sheet name="TestURLinfo" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="147">
   <si>
     <t>2IE</t>
   </si>
@@ -441,6 +442,18 @@
     <t>payment-methods</t>
   </si>
   <si>
+    <t>contracts</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions/$SUBSCRIBER/contract</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions/$SUBSCRIBER/upgrade-eligibility?checkEarlyUpgrade=true&amp;fetchAdditionalInfoKey=JUMPUPGRADE</t>
+  </si>
+  <si>
+    <t>upgrade-eligibility</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -456,13 +469,7 @@
     <t/>
   </si>
   <si>
-    <t>[</t>
-  </si>
-  <si>
     <t>{</t>
-  </si>
-  <si>
-    <t>113526468</t>
   </si>
 </sst>
 </file>
@@ -890,9 +897,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -904,124 +911,111 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>113526468</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1032,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,14 +1101,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1123,7 +1138,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,11 +1844,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="143.85546875" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2371,7 +2390,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,4 +2490,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="140.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="150">
   <si>
     <t>2IE</t>
   </si>
@@ -454,6 +454,12 @@
     <t>upgrade-eligibility</t>
   </si>
   <si>
+    <t>current-services</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/v1/sub/accounts/$BAN/subscriptions/$SUBSCRIBER/current-services</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -470,6 +476,9 @@
   </si>
   <si>
     <t>{</t>
+  </si>
+  <si>
+    <t>113526468</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
@@ -911,111 +920,133 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>131</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
       <c r="C9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>113526468</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1026,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1136,7 @@
       <c r="A6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C6" t="s">
@@ -1116,10 +1147,21 @@
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1127,9 +1169,12 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomaiton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="148">
   <si>
     <t>2IE</t>
   </si>
@@ -373,69 +373,18 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/sub/v1/accounts/$BAN/subscriptions</t>
   </si>
   <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>AugUser040</t>
-  </si>
-  <si>
-    <t>4432447994</t>
-  </si>
-  <si>
-    <t>onreg-21213</t>
-  </si>
-  <si>
-    <t>ONREG-18091</t>
-  </si>
-  <si>
-    <t>ONREG-18095</t>
-  </si>
-  <si>
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/accounts/v1/accounts/$BAN/financial-status?realTimeInd=false&amp;isGuestPay=false</t>
   </si>
   <si>
     <t>financialstatus</t>
   </si>
   <si>
-    <t>ONREG-25212</t>
-  </si>
-  <si>
-    <t>ONREG-25329</t>
-  </si>
-  <si>
-    <t>ONREG-25213</t>
-  </si>
-  <si>
-    <t>ONREG-25783</t>
-  </si>
-  <si>
     <t>future-payments</t>
   </si>
   <si>
     <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false</t>
   </si>
   <si>
-    <t>103341135</t>
-  </si>
-  <si>
-    <t>104404406</t>
-  </si>
-  <si>
-    <t>118789584</t>
-  </si>
-  <si>
-    <t>127188714</t>
-  </si>
-  <si>
-    <t>118919630</t>
-  </si>
-  <si>
-    <t>119134450</t>
-  </si>
-  <si>
-    <t>ONREG-12961</t>
-  </si>
-  <si>
     <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true</t>
   </si>
   <si>
@@ -460,6 +409,30 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/v1/sub/accounts/$BAN/subscriptions/$SUBSCRIBER/current-services</t>
   </si>
   <si>
+    <t>ONREG-19126</t>
+  </si>
+  <si>
+    <t>ONREG-19127</t>
+  </si>
+  <si>
+    <t>ONREG-17643</t>
+  </si>
+  <si>
+    <t>ONREG-17765</t>
+  </si>
+  <si>
+    <t>ONREG-19129</t>
+  </si>
+  <si>
+    <t>ONREG-19067</t>
+  </si>
+  <si>
+    <t>ONREG-19039</t>
+  </si>
+  <si>
+    <t>ONREG-18564</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -475,10 +448,31 @@
     <t/>
   </si>
   <si>
+    <t>167647058</t>
+  </si>
+  <si>
     <t>{</t>
   </si>
   <si>
-    <t>113526468</t>
+    <t>167651479</t>
+  </si>
+  <si>
+    <t>169356812</t>
+  </si>
+  <si>
+    <t>171655007</t>
+  </si>
+  <si>
+    <t>171878073</t>
+  </si>
+  <si>
+    <t>126237170</t>
+  </si>
+  <si>
+    <t>126245368</t>
+  </si>
+  <si>
+    <t>126806414</t>
   </si>
 </sst>
 </file>
@@ -486,7 +480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +523,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -592,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -613,15 +600,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -906,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,133 +900,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B9"/>
       <c r="C9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1101,10 +1054,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1112,10 +1065,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1123,10 +1076,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1134,10 +1087,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1145,10 +1098,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1156,10 +1109,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2583,10 +2536,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2594,10 +2547,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2605,10 +2558,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2616,10 +2569,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Eclipse\eclipse-workspace\eclipse-workspace\APIAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul757123\git\APIAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="148">
   <si>
     <t>2IE</t>
   </si>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>121</v>
       </c>
       <c r="C6" t="s">
@@ -1100,7 +1100,7 @@
       <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>122</v>
       </c>
       <c r="C7" t="s">
@@ -1111,7 +1111,7 @@
       <c r="A8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>125</v>
       </c>
       <c r="C8" t="s">
@@ -1122,12 +1122,9 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2492,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,6 +2575,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
   <si>
     <t>2IE</t>
   </si>
@@ -433,6 +433,15 @@
     <t>ONREG-18564</t>
   </si>
   <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/eligibility/v1/flows?type=CHANGE_SERVICES&amp;subscriberId=$SUBSCRIBER&amp;accountId=$BAN&amp;accountSubscriberIds=$SUBSCRIBER&amp;role=ACCOUNT_OWNER</t>
+  </si>
+  <si>
+    <t>v1-flows</t>
+  </si>
+  <si>
+    <t>AugUser040</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -473,6 +482,12 @@
   </si>
   <si>
     <t>126806414</t>
+  </si>
+  <si>
+    <t>434349902</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -886,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,106 +915,136 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2"/>
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3"/>
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4"/>
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
         <v>143</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6"/>
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7"/>
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8"/>
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9"/>
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1160,17 @@
         <v>125</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="152">
   <si>
     <t>2IE</t>
   </si>
@@ -409,37 +409,43 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/v1/sub/accounts/$BAN/subscriptions/$SUBSCRIBER/current-services</t>
   </si>
   <si>
-    <t>ONREG-19126</t>
-  </si>
-  <si>
-    <t>ONREG-19127</t>
-  </si>
-  <si>
-    <t>ONREG-17643</t>
-  </si>
-  <si>
-    <t>ONREG-17765</t>
-  </si>
-  <si>
-    <t>ONREG-19129</t>
-  </si>
-  <si>
-    <t>ONREG-19067</t>
-  </si>
-  <si>
-    <t>ONREG-19039</t>
-  </si>
-  <si>
-    <t>ONREG-18564</t>
-  </si>
-  <si>
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/eligibility/v1/flows?type=CHANGE_SERVICES&amp;subscriberId=$SUBSCRIBER&amp;accountId=$BAN&amp;accountSubscriberIds=$SUBSCRIBER&amp;role=ACCOUNT_OWNER</t>
   </si>
   <si>
     <t>v1-flows</t>
   </si>
   <si>
-    <t>AugUser040</t>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/digital/mac/v1/accounts/$BAN/adjustment-codes?macInd=autopay</t>
+  </si>
+  <si>
+    <t>mac-adjustment</t>
+  </si>
+  <si>
+    <t>ONREG-17921</t>
+  </si>
+  <si>
+    <t>ONREG-13083</t>
+  </si>
+  <si>
+    <t>ONREG-17938</t>
+  </si>
+  <si>
+    <t>ONREG-13431</t>
+  </si>
+  <si>
+    <t>ONREG-17964</t>
+  </si>
+  <si>
+    <t>ONREG-17855</t>
+  </si>
+  <si>
+    <t>ONREG-17891</t>
+  </si>
+  <si>
+    <t>ONREG-19823</t>
+  </si>
+  <si>
+    <t>ONREG-13182</t>
   </si>
   <si>
     <t>BAN</t>
@@ -448,46 +454,37 @@
     <t>SM_USER</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>167647058</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>167651479</t>
-  </si>
-  <si>
-    <t>169356812</t>
-  </si>
-  <si>
-    <t>171655007</t>
-  </si>
-  <si>
-    <t>171878073</t>
-  </si>
-  <si>
-    <t>126237170</t>
-  </si>
-  <si>
-    <t>126245368</t>
-  </si>
-  <si>
-    <t>126806414</t>
-  </si>
-  <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>100439175</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>100567017</t>
+  </si>
+  <si>
+    <t>101487374</t>
+  </si>
+  <si>
+    <t>101828015</t>
+  </si>
+  <si>
+    <t>103385568</t>
+  </si>
+  <si>
+    <t>105805094</t>
+  </si>
+  <si>
+    <t>108362572</t>
+  </si>
+  <si>
+    <t>113556403</t>
+  </si>
+  <si>
+    <t>136524851</t>
   </si>
 </sst>
 </file>
@@ -903,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,16 +912,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
         <v>141</v>
@@ -953,7 +950,7 @@
         <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
@@ -964,7 +961,7 @@
         <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>143</v>
@@ -975,7 +972,7 @@
         <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>143</v>
@@ -986,7 +983,7 @@
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>143</v>
@@ -997,7 +994,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>143</v>
@@ -1008,7 +1005,7 @@
         <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -1019,7 +1016,7 @@
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>143</v>
@@ -1030,7 +1027,7 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
@@ -1041,10 +1038,10 @@
         <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,14 +1084,11 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1106,7 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>117</v>
       </c>
       <c r="C4" t="s">
@@ -1123,7 +1117,7 @@
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
@@ -1165,12 +1159,23 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2545,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,6 +2658,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="154">
   <si>
     <t>2IE</t>
   </si>
@@ -421,31 +421,34 @@
     <t>mac-adjustment</t>
   </si>
   <si>
-    <t>ONREG-17921</t>
-  </si>
-  <si>
-    <t>ONREG-13083</t>
-  </si>
-  <si>
-    <t>ONREG-17938</t>
-  </si>
-  <si>
-    <t>ONREG-13431</t>
-  </si>
-  <si>
-    <t>ONREG-17964</t>
-  </si>
-  <si>
-    <t>ONREG-17855</t>
-  </si>
-  <si>
-    <t>ONREG-17891</t>
-  </si>
-  <si>
-    <t>ONREG-19823</t>
-  </si>
-  <si>
-    <t>ONREG-13182</t>
+    <t>ONREG-19630</t>
+  </si>
+  <si>
+    <t>ONREG-19634</t>
+  </si>
+  <si>
+    <t>ONREG-19705</t>
+  </si>
+  <si>
+    <t>ONREG-25688</t>
+  </si>
+  <si>
+    <t>ONREG-20095</t>
+  </si>
+  <si>
+    <t>ONREG-19939</t>
+  </si>
+  <si>
+    <t>ONREG-20001</t>
+  </si>
+  <si>
+    <t>ONREG-18620</t>
+  </si>
+  <si>
+    <t>ONREG-26645</t>
+  </si>
+  <si>
+    <t>ST1-27775</t>
   </si>
   <si>
     <t>BAN</t>
@@ -457,34 +460,37 @@
     <t/>
   </si>
   <si>
-    <t>100439175</t>
+    <t>155283019</t>
   </si>
   <si>
     <t>[</t>
   </si>
   <si>
-    <t>100567017</t>
-  </si>
-  <si>
-    <t>101487374</t>
-  </si>
-  <si>
-    <t>101828015</t>
-  </si>
-  <si>
-    <t>103385568</t>
-  </si>
-  <si>
-    <t>105805094</t>
-  </si>
-  <si>
-    <t>108362572</t>
-  </si>
-  <si>
-    <t>113556403</t>
-  </si>
-  <si>
-    <t>136524851</t>
+    <t>162691762</t>
+  </si>
+  <si>
+    <t>202592941</t>
+  </si>
+  <si>
+    <t>288561502</t>
+  </si>
+  <si>
+    <t>266720569</t>
+  </si>
+  <si>
+    <t>103127851</t>
+  </si>
+  <si>
+    <t>203320557</t>
+  </si>
+  <si>
+    <t>135391535</t>
+  </si>
+  <si>
+    <t>121245443</t>
+  </si>
+  <si>
+    <t>131507015</t>
   </si>
 </sst>
 </file>
@@ -898,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,136 +918,163 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>121245443</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>131507015</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul757123\git\APIAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul757123\git\APIAutomation1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="141">
   <si>
     <t>2IE</t>
   </si>
@@ -430,24 +430,6 @@
     <t>ONREG-19705</t>
   </si>
   <si>
-    <t>ONREG-25688</t>
-  </si>
-  <si>
-    <t>ONREG-20095</t>
-  </si>
-  <si>
-    <t>ONREG-19939</t>
-  </si>
-  <si>
-    <t>ONREG-20001</t>
-  </si>
-  <si>
-    <t>ONREG-18620</t>
-  </si>
-  <si>
-    <t>ONREG-26645</t>
-  </si>
-  <si>
     <t>ST1-27775</t>
   </si>
   <si>
@@ -463,31 +445,10 @@
     <t>155283019</t>
   </si>
   <si>
-    <t>[</t>
-  </si>
-  <si>
     <t>162691762</t>
   </si>
   <si>
     <t>202592941</t>
-  </si>
-  <si>
-    <t>288561502</t>
-  </si>
-  <si>
-    <t>266720569</t>
-  </si>
-  <si>
-    <t>103127851</t>
-  </si>
-  <si>
-    <t>203320557</t>
-  </si>
-  <si>
-    <t>135391535</t>
-  </si>
-  <si>
-    <t>121245443</t>
   </si>
   <si>
     <t>131507015</t>
@@ -904,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,163 +879,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>121245443</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>131507015</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
   <si>
     <t>2IE</t>
   </si>
@@ -430,7 +430,13 @@
     <t>ONREG-19705</t>
   </si>
   <si>
-    <t>ST1-27775</t>
+    <t>ONREG-25688</t>
+  </si>
+  <si>
+    <t>266720569</t>
+  </si>
+  <si>
+    <t>ONREG-20095</t>
   </si>
   <si>
     <t>BAN</t>
@@ -451,7 +457,7 @@
     <t>202592941</t>
   </si>
   <si>
-    <t>131507015</t>
+    <t>288561502</t>
   </si>
 </sst>
 </file>
@@ -865,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,42 +885,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -922,7 +928,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
@@ -938,10 +944,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -14,19 +14,20 @@
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
     <sheet name="API_CONSOLE_INFO" sheetId="2" r:id="rId2"/>
-    <sheet name="subscription" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="subscription" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="GUIDELINES" sheetId="3" r:id="rId7"/>
     <sheet name="TestURLinfo" sheetId="8" r:id="rId8"/>
+    <sheet name="TestURLinfoST2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
   <si>
     <t>2IE</t>
   </si>
@@ -421,22 +422,31 @@
     <t>mac-adjustment</t>
   </si>
   <si>
-    <t>ONREG-19630</t>
-  </si>
-  <si>
-    <t>ONREG-19634</t>
-  </si>
-  <si>
-    <t>ONREG-19705</t>
-  </si>
-  <si>
-    <t>ONREG-25688</t>
-  </si>
-  <si>
-    <t>266720569</t>
-  </si>
-  <si>
-    <t>ONREG-20095</t>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/sub/v1/accounts/$BAN/subscriptions</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/v1/sub/accounts/$BAN/subscriptions/$SUBSCRIBER/current-services</t>
+  </si>
+  <si>
+    <t>TWREG-50571</t>
+  </si>
+  <si>
+    <t>TWREG-50580</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/sub/v1/accounts/$BAN/subscriptions/$SUBSCRIBER/contract</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/sub/v1/accounts/$BAN/subscriptions/$SUBSCRIBER/upgrade-eligibility?checkEarlyUpgrade=true&amp;fetchAdditionalInfoKey=JUMPUPGRADE</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/eligibility/v1/flows?type=CHANGE_SERVICES&amp;subscriberId=$SUBSCRIBER&amp;accountId=$BAN&amp;accountSubscriberIds=$SUBSCRIBER&amp;role=ACCOUNT_OWNER</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/mac/v1/accounts/$BAN/adjustment-codes?macInd=autopay</t>
   </si>
   <si>
     <t>BAN</t>
@@ -448,16 +458,10 @@
     <t/>
   </si>
   <si>
-    <t>155283019</t>
-  </si>
-  <si>
-    <t>162691762</t>
-  </si>
-  <si>
-    <t>202592941</t>
-  </si>
-  <si>
-    <t>288561502</t>
+    <t>100040668</t>
+  </si>
+  <si>
+    <t>100176138</t>
   </si>
 </sst>
 </file>
@@ -586,7 +590,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -871,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,77 +889,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -998,8 +978,8 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1010,7 +990,7 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1020,8 +1000,8 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>117</v>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1031,8 +1011,8 @@
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
-        <v>118</v>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1043,7 +1023,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1054,7 +1034,7 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1065,7 +1045,7 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1076,7 +1056,7 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1087,7 +1067,7 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1095,8 +1075,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2467,7 +2447,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,4 +2581,137 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="197.42578125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul757123\git\APIAutomation1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul757123\git\APIAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,18 @@
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="GUIDELINES" sheetId="3" r:id="rId7"/>
-    <sheet name="TestURLinfo" sheetId="8" r:id="rId8"/>
+    <sheet name="TestURLinfoST1" sheetId="8" r:id="rId8"/>
     <sheet name="TestURLinfoST2" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INPUT_SHEET!$A$1:$B$4</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
   <si>
     <t>2IE</t>
   </si>
@@ -428,12 +431,6 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/v1/sub/accounts/$BAN/subscriptions/$SUBSCRIBER/current-services</t>
   </si>
   <si>
-    <t>TWREG-50571</t>
-  </si>
-  <si>
-    <t>TWREG-50580</t>
-  </si>
-  <si>
     <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true</t>
   </si>
   <si>
@@ -449,6 +446,102 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/mac/v1/accounts/$BAN/adjustment-codes?macInd=autopay</t>
   </si>
   <si>
+    <t>TWREG-50568</t>
+  </si>
+  <si>
+    <t>TWREG-50226</t>
+  </si>
+  <si>
+    <t>TWREG-51112</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/v1/subscriberInfo/lookup/subscriberbasicinfo</t>
+  </si>
+  <si>
+    <t>payment-eligibility-create</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pa/v1/accounts/$BAN/payment-eligibility</t>
+  </si>
+  <si>
+    <t>Eligibilityind</t>
+  </si>
+  <si>
+    <t>{ "checkAccountPaymentEligibility": { "checkEligibilityInfo": { "checkCreateEligibilityInfo": { "paymentSourceId": "WEBCHTPA" } } }}</t>
+  </si>
+  <si>
+    <t>payment-eligibility-modify</t>
+  </si>
+  <si>
+    <t>{ "checkAccountPaymentEligibility": { "checkEligibilityInfo": { "checkModifyEligibilityInfo": { "paymentSourceId": "ABCHTPA" , "voucherNumber": "$VoucherNumber" } } }}</t>
+  </si>
+  <si>
+    <t>accountbasic-Info</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/digital/v1/accountInfo/lookup/accountbasicinfo?checkDelinquent=false</t>
+  </si>
+  <si>
+    <t>{ "queryAccountBasicInfo": { "info": { "ban": "$BAN" }, "basicInfo": { "fetchBasicInfo": "true", "fetchExpandedBasicInfo": "true" }, "fetchBillingAddressInfo": "true", "fetchBillingNameInfo": "true", "fetchHeaderInfo": "true", "fetchLockBoxInfo": "true", "fetchMailingAddressInfo": "true", "fetchOtherInfo": "true", "fetchOtherNameInfo": "true", "fetchSubscriberCountInfo": "true", "fetchShippingAddressInfo": "true", "fetchSplitBillInfo": "true", "fetchSecurityGroupInfo": "true", "uaiInfo": { "fetchUaiInfo": "true", "effectiveUaiInd": "true" }, "fetchPersonalizationAttributeInfo": "true", "fetchMacInfo": "true", "featureToggleInfoList": { "featureToggleInfo": [ { "featureToggleKey": "FETCHADDRESSID" } ] } }}</t>
+  </si>
+  <si>
+    <t>subscriber-services</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/digital/v1/subServices/lookup/subscriberservices</t>
+  </si>
+  <si>
+    <t>{ "querySubscriberServices": { "info": { "ptn": "$PTN" }, "featureList": { "includeFutureDated": "false", "featureListEnabled": "true" }, "ltsList": "false", "m2HONumberInfo": { "includeExpired": "true", "includeFutureDated": "true", "m2HONumberInfoEnabled": "true" }, "socList": { "includeExpired": "true", "blockNumber": "1", "includeFutureDated": "true", "socCode": "true", "socListEnabled": "true" }, "hybridGroupList": { "fetchHybridGroupList": "true" }, "fetchSubAttributeInfo": "true", "featureToggleInfoList": { "featureToggleInfo": [ { "featureToggleKey": "SKIPPREFSERIALLOOKUP" } ] }, "fetchAdditionalInfoList": { "fetchAdditionalInfo": [ { "fetchAdditionalInfoKey": "SERIALNUMBERINFO" } ] } }}</t>
+  </si>
+  <si>
+    <t>subscriberbasic-info</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/digital/v1/subscriberInfo/lookup/subscriberbasicinfo</t>
+  </si>
+  <si>
+    <t>{ "querySubscriberBasicInfo": { "info": { "mdn": "$PTN" }, "fetchDetailInfo": true }}</t>
+  </si>
+  <si>
+    <t>Past-Payments</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/past-payments?realTimePaymentListInd=false&amp;isUsgBan=false</t>
+  </si>
+  <si>
+    <t>Negative-Listed</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/negative-listed?isUsgBan=false</t>
+  </si>
+  <si>
+    <t>requestBody</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pa/v1/accounts/$BAN/payment-eligibility</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/past-payments?realTimePaymentListInd=false&amp;isUsgBan=false</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/negative-listed?isUsgBan=false</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/v1/accountInfo/lookup/accountbasicinfo?checkDelinquent=false</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/v1/subServices/lookup/subscriberservices</t>
+  </si>
+  <si>
+    <t>accountlevel-contracts</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/accounts/v1/accounts/$BAN/contracts</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/accounts/v1/accounts/$BAN/contracts</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
@@ -458,10 +551,16 @@
     <t/>
   </si>
   <si>
-    <t>100040668</t>
-  </si>
-  <si>
-    <t>100176138</t>
+    <t>100001707</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>100108528</t>
+  </si>
+  <si>
+    <t>100096119</t>
   </si>
 </sst>
 </file>
@@ -469,7 +568,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,8 +612,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +679,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -589,8 +700,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -875,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,53 +1012,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -946,21 +1065,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="115.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="197.42578125" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="29.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -973,8 +1092,11 @@
       <c r="D1" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -985,101 +1107,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2444,21 +2488,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.5703125" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="140.28515625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -2471,8 +2515,11 @@
       <c r="D1" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -2486,7 +2533,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2497,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2508,7 +2555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -2519,7 +2566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -2530,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -2541,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -2552,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2563,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -2571,6 +2618,120 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2578,17 +2739,19 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,7 +2760,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="197.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -2607,8 +2770,14 @@
       <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -2619,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2630,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2641,40 +2810,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -2685,25 +2854,139 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2711,6 +2994,7 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
     <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
+    <hyperlink ref="B18" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="182">
   <si>
     <t>2IE</t>
   </si>
@@ -446,15 +446,6 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/mac/v1/accounts/$BAN/adjustment-codes?macInd=autopay</t>
   </si>
   <si>
-    <t>TWREG-50568</t>
-  </si>
-  <si>
-    <t>TWREG-50226</t>
-  </si>
-  <si>
-    <t>TWREG-51112</t>
-  </si>
-  <si>
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/digital/v1/subscriberInfo/lookup/subscriberbasicinfo</t>
   </si>
   <si>
@@ -542,25 +533,52 @@
     <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/accounts/v1/accounts/$BAN/contracts</t>
   </si>
   <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/accountplans/v1/accounts/$BAN/plans?userRole=ACCOUNT_OWNER</t>
+  </si>
+  <si>
+    <t>accountplans</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/accountplans/v1/accounts/$BAN/plans?userRole=ACCOUNT_OWNER</t>
+  </si>
+  <si>
+    <t>v1-services</t>
+  </si>
+  <si>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/products/v1/services?lineDetail=lineType=CHANGE_SERVICES;subscriberID=$SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/services?lineDetail=lineType=CHANGE_SERVICES;subscriberID=$SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>ONREG-19077</t>
+  </si>
+  <si>
+    <t>ONREG-20177</t>
+  </si>
+  <si>
+    <t>ONREG-20230</t>
+  </si>
+  <si>
     <t>BAN</t>
   </si>
   <si>
     <t>SM_USER</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>100001707</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>100108528</t>
-  </si>
-  <si>
-    <t>100096119</t>
+    <t>127890560</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -613,13 +631,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,12 +657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,20 +712,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -998,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,49 +1025,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
       <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>120607864</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>149298381</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1067,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1103,7 @@
         <v>102</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,20 +1111,23 @@
         <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2488,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +2529,7 @@
         <v>102</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2570,7 +2583,7 @@
       <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C6" t="s">
@@ -2611,7 +2624,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B10" t="s">
@@ -2623,115 +2636,137 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>146</v>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>149</v>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>152</v>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2740,18 +2775,21 @@
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,7 +2812,7 @@
         <v>102</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,116 +2915,138 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2995,6 +3055,8 @@
     <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
     <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
     <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="TestURLinfoST2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INPUT_SHEET!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INPUT_SHEET!$A$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="197">
   <si>
     <t>2IE</t>
   </si>
@@ -551,13 +551,40 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/services?lineDetail=lineType=CHANGE_SERVICES;subscriberID=$SUBSCRIBER</t>
   </si>
   <si>
-    <t>ONREG-19077</t>
-  </si>
-  <si>
-    <t>ONREG-20177</t>
-  </si>
-  <si>
-    <t>ONREG-20230</t>
+    <t>https://st1-apiservices-sen.test.sprint.com:8441/api/process/products/v1/plans?lineDetail=lineType=CHANGE_PLAN;subscriberID=$SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>v1-plans</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/plans?lineDetail=lineType=CHANGE_PLAN;subscriberID=$SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>TWREG-48091</t>
+  </si>
+  <si>
+    <t>TWREG-61417</t>
+  </si>
+  <si>
+    <t>ST2-62425</t>
+  </si>
+  <si>
+    <t>TWREG-46810</t>
+  </si>
+  <si>
+    <t>TWREG-61404</t>
+  </si>
+  <si>
+    <t>ST2-64571</t>
+  </si>
+  <si>
+    <t>REG-JAN-ITE2-1003</t>
+  </si>
+  <si>
+    <t>TWREG-50042</t>
+  </si>
+  <si>
+    <t>TWREG-61166</t>
   </si>
   <si>
     <t>BAN</t>
@@ -566,19 +593,37 @@
     <t>SM_USER</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>127890560</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>129835926</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>110756749</t>
+  </si>
+  <si>
+    <t>266707755</t>
+  </si>
+  <si>
+    <t>103675616</t>
+  </si>
+  <si>
+    <t>148228772</t>
+  </si>
+  <si>
+    <t>382040443</t>
+  </si>
+  <si>
+    <t>100336058</t>
+  </si>
+  <si>
+    <t>361262845</t>
+  </si>
+  <si>
+    <t>231972919</t>
   </si>
 </sst>
 </file>
@@ -586,7 +631,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,12 +672,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -691,7 +730,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,12 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1011,60 +1045,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="11.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="15.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="17.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>120607864</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>149298381</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>174</v>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1075,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,33 +1234,108 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
+      <c r="B2" t="s">
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2501,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,14 +2969,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B18" r:id="rId3"/>
     <hyperlink ref="B19" r:id="rId4"/>
-    <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B20" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -2786,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +3012,7 @@
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -2819,7 +3029,7 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>130</v>
       </c>
       <c r="C2" t="s">
@@ -2841,7 +3051,7 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
@@ -2852,7 +3062,7 @@
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>132</v>
       </c>
       <c r="C5" t="s">
@@ -2918,7 +3128,7 @@
       <c r="A11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2935,7 +3145,7 @@
       <c r="A12" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2950,7 +3160,7 @@
       <c r="A13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2965,7 +3175,7 @@
       <c r="A14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>162</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2980,7 +3190,7 @@
       <c r="A15" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2995,7 +3205,7 @@
       <c r="A16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>159</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3008,7 +3218,7 @@
       <c r="A17" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3021,7 +3231,7 @@
       <c r="A18" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" t="s">
         <v>164</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -3032,7 +3242,7 @@
       <c r="A19" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>166</v>
       </c>
       <c r="C19" t="s">
@@ -3043,10 +3253,21 @@
       <c r="A20" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>171</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3057,6 +3278,7 @@
     <hyperlink ref="B18" r:id="rId3"/>
     <hyperlink ref="B19" r:id="rId4"/>
     <hyperlink ref="B20" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="223">
   <si>
     <t>2IE</t>
   </si>
@@ -560,31 +560,67 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/plans?lineDetail=lineType=CHANGE_PLAN;subscriberID=$SUBSCRIBER</t>
   </si>
   <si>
-    <t>TWREG-48091</t>
-  </si>
-  <si>
-    <t>TWREG-61417</t>
-  </si>
-  <si>
-    <t>ST2-62425</t>
-  </si>
-  <si>
-    <t>TWREG-46810</t>
-  </si>
-  <si>
-    <t>TWREG-61404</t>
-  </si>
-  <si>
-    <t>ST2-64571</t>
-  </si>
-  <si>
-    <t>REG-JAN-ITE2-1003</t>
-  </si>
-  <si>
-    <t>TWREG-50042</t>
-  </si>
-  <si>
-    <t>TWREG-61166</t>
+    <t>ONREG-19030</t>
+  </si>
+  <si>
+    <t>ONREG-20195</t>
+  </si>
+  <si>
+    <t>ONREG-17902</t>
+  </si>
+  <si>
+    <t>ONREG-17988</t>
+  </si>
+  <si>
+    <t>ONREG-12961</t>
+  </si>
+  <si>
+    <t>ST1-28486</t>
+  </si>
+  <si>
+    <t>ONREG-18176</t>
+  </si>
+  <si>
+    <t>ONREG-18408</t>
+  </si>
+  <si>
+    <t>ONREG-21972</t>
+  </si>
+  <si>
+    <t>ONREG-13351</t>
+  </si>
+  <si>
+    <t>ONREG-15364</t>
+  </si>
+  <si>
+    <t>ONREG-12954</t>
+  </si>
+  <si>
+    <t>ONREG-26139</t>
+  </si>
+  <si>
+    <t>ONREG-24328</t>
+  </si>
+  <si>
+    <t>ONREG-17951</t>
+  </si>
+  <si>
+    <t>ONREG-25063</t>
+  </si>
+  <si>
+    <t>ST1-29626</t>
+  </si>
+  <si>
+    <t>ONREG-25938</t>
+  </si>
+  <si>
+    <t>ONREG-13929</t>
+  </si>
+  <si>
+    <t>ST1-29643</t>
+  </si>
+  <si>
+    <t>ST1-30195</t>
   </si>
   <si>
     <t>BAN</t>
@@ -593,37 +629,79 @@
     <t>SM_USER</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>129835926</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>110756749</t>
-  </si>
-  <si>
-    <t>266707755</t>
-  </si>
-  <si>
-    <t>103675616</t>
-  </si>
-  <si>
-    <t>148228772</t>
-  </si>
-  <si>
-    <t>382040443</t>
-  </si>
-  <si>
-    <t>100336058</t>
-  </si>
-  <si>
-    <t>361262845</t>
-  </si>
-  <si>
-    <t>231972919</t>
+    <t>110909712</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>101135374</t>
+  </si>
+  <si>
+    <t>109069454</t>
+  </si>
+  <si>
+    <t>105419461</t>
+  </si>
+  <si>
+    <t>113526468</t>
+  </si>
+  <si>
+    <t>114883075</t>
+  </si>
+  <si>
+    <t>117878109</t>
+  </si>
+  <si>
+    <t>111805815</t>
+  </si>
+  <si>
+    <t>153077753</t>
+  </si>
+  <si>
+    <t>131704213</t>
+  </si>
+  <si>
+    <t>130485588</t>
+  </si>
+  <si>
+    <t>174719210</t>
+  </si>
+  <si>
+    <t>174164117</t>
+  </si>
+  <si>
+    <t>191784271</t>
+  </si>
+  <si>
+    <t>102642966</t>
+  </si>
+  <si>
+    <t>362021567</t>
+  </si>
+  <si>
+    <t>797577467</t>
+  </si>
+  <si>
+    <t>145455414</t>
+  </si>
+  <si>
+    <t>716645783</t>
+  </si>
+  <si>
+    <t>810021262</t>
+  </si>
+  <si>
+    <t>265596532</t>
   </si>
 </sst>
 </file>
@@ -761,7 +839,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1045,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,136 +1139,279 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>183</v>
       </c>
       <c r="C10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
         <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>265596532</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1425,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,19 +1457,22 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>130</v>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1254,10 +1480,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1265,77 +1491,86 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="A6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="A7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2702,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT_SHEET" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="TestURLinfoST2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INPUT_SHEET!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INPUT_SHEET!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="194">
   <si>
     <t>2IE</t>
   </si>
@@ -560,67 +560,28 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/plans?lineDetail=lineType=CHANGE_PLAN;subscriberID=$SUBSCRIBER</t>
   </si>
   <si>
-    <t>ONREG-19030</t>
-  </si>
-  <si>
-    <t>ONREG-20195</t>
-  </si>
-  <si>
-    <t>ONREG-17902</t>
-  </si>
-  <si>
-    <t>ONREG-17988</t>
-  </si>
-  <si>
-    <t>ONREG-12961</t>
-  </si>
-  <si>
-    <t>ST1-28486</t>
-  </si>
-  <si>
-    <t>ONREG-18176</t>
-  </si>
-  <si>
-    <t>ONREG-18408</t>
-  </si>
-  <si>
-    <t>ONREG-21972</t>
-  </si>
-  <si>
-    <t>ONREG-13351</t>
-  </si>
-  <si>
-    <t>ONREG-15364</t>
-  </si>
-  <si>
-    <t>ONREG-12954</t>
-  </si>
-  <si>
-    <t>ONREG-26139</t>
-  </si>
-  <si>
-    <t>ONREG-24328</t>
-  </si>
-  <si>
-    <t>ONREG-17951</t>
-  </si>
-  <si>
-    <t>ONREG-25063</t>
-  </si>
-  <si>
-    <t>ST1-29626</t>
-  </si>
-  <si>
-    <t>ONREG-25938</t>
-  </si>
-  <si>
-    <t>ONREG-13929</t>
-  </si>
-  <si>
-    <t>ST1-29643</t>
-  </si>
-  <si>
-    <t>ST1-30195</t>
+    <t>TWREG-51125</t>
+  </si>
+  <si>
+    <t>TWREG-51534</t>
+  </si>
+  <si>
+    <t>TWREG-55244</t>
+  </si>
+  <si>
+    <t>TWREG-55600</t>
+  </si>
+  <si>
+    <t>TWREG-59505</t>
+  </si>
+  <si>
+    <t>TWREG-50368</t>
+  </si>
+  <si>
+    <t>TWREG-56300</t>
+  </si>
+  <si>
+    <t>TWREG-56725</t>
   </si>
   <si>
     <t>BAN</t>
@@ -629,79 +590,31 @@
     <t>SM_USER</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>110909712</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>101135374</t>
-  </si>
-  <si>
-    <t>109069454</t>
-  </si>
-  <si>
-    <t>105419461</t>
-  </si>
-  <si>
-    <t>113526468</t>
-  </si>
-  <si>
-    <t>114883075</t>
-  </si>
-  <si>
-    <t>117878109</t>
-  </si>
-  <si>
-    <t>111805815</t>
-  </si>
-  <si>
-    <t>153077753</t>
-  </si>
-  <si>
-    <t>131704213</t>
-  </si>
-  <si>
-    <t>130485588</t>
-  </si>
-  <si>
-    <t>174719210</t>
-  </si>
-  <si>
-    <t>174164117</t>
-  </si>
-  <si>
-    <t>191784271</t>
-  </si>
-  <si>
-    <t>102642966</t>
-  </si>
-  <si>
-    <t>362021567</t>
-  </si>
-  <si>
-    <t>797577467</t>
-  </si>
-  <si>
-    <t>145455414</t>
-  </si>
-  <si>
-    <t>716645783</t>
-  </si>
-  <si>
-    <t>810021262</t>
-  </si>
-  <si>
-    <t>265596532</t>
+    <t>100037210</t>
+  </si>
+  <si>
+    <t>100134144</t>
+  </si>
+  <si>
+    <t>157292133</t>
+  </si>
+  <si>
+    <t>389117267</t>
+  </si>
+  <si>
+    <t>130010057</t>
+  </si>
+  <si>
+    <t>140901976</t>
+  </si>
+  <si>
+    <t>145979901</t>
+  </si>
+  <si>
+    <t>166576293</t>
   </si>
 </sst>
 </file>
@@ -808,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -838,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1125,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,279 +1049,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>176</v>
       </c>
-      <c r="C3" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>177</v>
       </c>
-      <c r="C4" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>180</v>
       </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
       </c>
-      <c r="C8" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>265596532</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1422,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,22 +1177,19 @@
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
+      <c r="B2" t="s">
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1480,10 +1197,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1491,86 +1208,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2937,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -3233,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/APIOutput.xlsx
+++ b/APIOutput.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="GUIDELINES" sheetId="3" r:id="rId7"/>
+    <sheet name="Gudie Lines" sheetId="3" r:id="rId7"/>
     <sheet name="TestURLinfoST1" sheetId="8" r:id="rId8"/>
     <sheet name="TestURLinfoST2" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="325">
   <si>
     <t>2IE</t>
   </si>
@@ -167,9 +167,6 @@
     <t>3. Replacing the multiple variables in request body will be treated as enhancement</t>
   </si>
   <si>
-    <t>4. Handling Multiple endpoints is not in scope ex: fetching subscriber ids and replacing them in next call for lookup/services</t>
-  </si>
-  <si>
     <t>https://st2-apiservices-web.test.sprint.com:7441/api/process/pay/v1/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=false</t>
   </si>
   <si>
@@ -560,28 +557,322 @@
     <t>https://st2-apiservices-sen.test.sprint.com:8442/api/process/products/v1/plans?lineDetail=lineType=CHANGE_PLAN;subscriberID=$SUBSCRIBER</t>
   </si>
   <si>
-    <t>TWREG-51125</t>
-  </si>
-  <si>
-    <t>TWREG-51534</t>
-  </si>
-  <si>
-    <t>TWREG-55244</t>
-  </si>
-  <si>
-    <t>TWREG-55600</t>
-  </si>
-  <si>
-    <t>TWREG-59505</t>
-  </si>
-  <si>
-    <t>TWREG-50368</t>
-  </si>
-  <si>
-    <t>TWREG-56300</t>
-  </si>
-  <si>
-    <t>TWREG-56725</t>
+    <t>v1-plans-errorhandlingpending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>querysubscriberresourcehistorylist</t>
+  </si>
+  <si>
+    <t>https://st2-apiservices-sen.test.sprint.com:8442/api/resourceinfo/1.0/querysubscriberresourcehistorylist/$SUBSCRIBER?idField=subscriberId</t>
+  </si>
+  <si>
+    <t>TWREG-52678</t>
+  </si>
+  <si>
+    <t>TWREG-49016</t>
+  </si>
+  <si>
+    <t>TWREG-47806</t>
+  </si>
+  <si>
+    <t>TWREG-52847</t>
+  </si>
+  <si>
+    <t>147266306</t>
+  </si>
+  <si>
+    <t>TWREG-49139</t>
+  </si>
+  <si>
+    <t>146796612</t>
+  </si>
+  <si>
+    <t>TWREG-52691</t>
+  </si>
+  <si>
+    <t>148040760</t>
+  </si>
+  <si>
+    <t>TWREG-47792</t>
+  </si>
+  <si>
+    <t>149065716</t>
+  </si>
+  <si>
+    <t>TWREG-52702</t>
+  </si>
+  <si>
+    <t>146935086</t>
+  </si>
+  <si>
+    <t>TWREG-48528</t>
+  </si>
+  <si>
+    <t>146038187</t>
+  </si>
+  <si>
+    <t>TWREG-48976</t>
+  </si>
+  <si>
+    <t>145440683</t>
+  </si>
+  <si>
+    <t>TWREG-47601</t>
+  </si>
+  <si>
+    <t>146662202</t>
+  </si>
+  <si>
+    <t>TWREG-49067</t>
+  </si>
+  <si>
+    <t>145542103</t>
+  </si>
+  <si>
+    <t>TWREG-49219</t>
+  </si>
+  <si>
+    <t>145620261</t>
+  </si>
+  <si>
+    <t>TWREG-49182</t>
+  </si>
+  <si>
+    <t>148954997</t>
+  </si>
+  <si>
+    <t>TWREG-48338</t>
+  </si>
+  <si>
+    <t>149239716</t>
+  </si>
+  <si>
+    <t>TWREG-52709</t>
+  </si>
+  <si>
+    <t>149333261</t>
+  </si>
+  <si>
+    <t>TWREG-52705</t>
+  </si>
+  <si>
+    <t>149581863</t>
+  </si>
+  <si>
+    <t>TWREG-49443</t>
+  </si>
+  <si>
+    <t>147960244</t>
+  </si>
+  <si>
+    <t>TWREG-47807</t>
+  </si>
+  <si>
+    <t>148028043</t>
+  </si>
+  <si>
+    <t>TWREG-47805</t>
+  </si>
+  <si>
+    <t>148352331</t>
+  </si>
+  <si>
+    <t>TWREG-47935</t>
+  </si>
+  <si>
+    <t>149406219</t>
+  </si>
+  <si>
+    <t>TWREG-48521</t>
+  </si>
+  <si>
+    <t>149559235</t>
+  </si>
+  <si>
+    <t>TWREG-51599</t>
+  </si>
+  <si>
+    <t>147566558</t>
+  </si>
+  <si>
+    <t>TWREG-52942</t>
+  </si>
+  <si>
+    <t>147744941</t>
+  </si>
+  <si>
+    <t>TWREG-49441</t>
+  </si>
+  <si>
+    <t>147849599</t>
+  </si>
+  <si>
+    <t>TWREG-47800</t>
+  </si>
+  <si>
+    <t>148044219</t>
+  </si>
+  <si>
+    <t>TWREG-51699</t>
+  </si>
+  <si>
+    <t>146811413</t>
+  </si>
+  <si>
+    <t>TWREG-48989</t>
+  </si>
+  <si>
+    <t>147274674</t>
+  </si>
+  <si>
+    <t>TWREG-48341</t>
+  </si>
+  <si>
+    <t>147314173</t>
+  </si>
+  <si>
+    <t>TWREG-52577</t>
+  </si>
+  <si>
+    <t>147117964</t>
+  </si>
+  <si>
+    <t>TWREG-47818</t>
+  </si>
+  <si>
+    <t>147815470</t>
+  </si>
+  <si>
+    <t>TWREG-48939</t>
+  </si>
+  <si>
+    <t>147378118</t>
+  </si>
+  <si>
+    <t>TWREG-49292</t>
+  </si>
+  <si>
+    <t>148141994</t>
+  </si>
+  <si>
+    <t>TWREG-47172</t>
+  </si>
+  <si>
+    <t>148331789</t>
+  </si>
+  <si>
+    <t>TWREG-47902</t>
+  </si>
+  <si>
+    <t>148545759</t>
+  </si>
+  <si>
+    <t>TWREG-52680</t>
+  </si>
+  <si>
+    <t>148753609</t>
+  </si>
+  <si>
+    <t>TWREG-49291</t>
+  </si>
+  <si>
+    <t>148800953</t>
+  </si>
+  <si>
+    <t>TWREG-52682</t>
+  </si>
+  <si>
+    <t>148841076</t>
+  </si>
+  <si>
+    <t>TWREG-52996</t>
+  </si>
+  <si>
+    <t>148123566</t>
+  </si>
+  <si>
+    <t>TWREG-47803</t>
+  </si>
+  <si>
+    <t>148941481</t>
+  </si>
+  <si>
+    <t>TWREG-47889</t>
+  </si>
+  <si>
+    <t>148217003</t>
+  </si>
+  <si>
+    <t>TWREG-52684</t>
+  </si>
+  <si>
+    <t>148860778</t>
+  </si>
+  <si>
+    <t>TWREG-49282</t>
+  </si>
+  <si>
+    <t>585116502</t>
+  </si>
+  <si>
+    <t>ST2-61683</t>
+  </si>
+  <si>
+    <t>593821019</t>
+  </si>
+  <si>
+    <t>ST2-67251</t>
+  </si>
+  <si>
+    <t>638016758</t>
+  </si>
+  <si>
+    <t>ST2-66434</t>
+  </si>
+  <si>
+    <t>605023054</t>
+  </si>
+  <si>
+    <t>ST2-67260</t>
+  </si>
+  <si>
+    <t>632990415</t>
+  </si>
+  <si>
+    <t>ST2-67277</t>
+  </si>
+  <si>
+    <t>636267990</t>
+  </si>
+  <si>
+    <t>ST2-67283</t>
+  </si>
+  <si>
+    <t>634343869</t>
+  </si>
+  <si>
+    <t>ST2-67279</t>
+  </si>
+  <si>
+    <t>563464336</t>
+  </si>
+  <si>
+    <t>ST2-66104</t>
+  </si>
+  <si>
+    <t>633417305</t>
+  </si>
+  <si>
+    <t>ST2-61701</t>
+  </si>
+  <si>
+    <t>630119400</t>
+  </si>
+  <si>
+    <t>ST2-66552</t>
   </si>
   <si>
     <t>BAN</t>
@@ -593,28 +884,130 @@
     <t/>
   </si>
   <si>
-    <t>100037210</t>
-  </si>
-  <si>
-    <t>100134144</t>
-  </si>
-  <si>
-    <t>157292133</t>
-  </si>
-  <si>
-    <t>389117267</t>
-  </si>
-  <si>
-    <t>130010057</t>
-  </si>
-  <si>
-    <t>140901976</t>
-  </si>
-  <si>
-    <t>145979901</t>
-  </si>
-  <si>
-    <t>166576293</t>
+    <t xml:space="preserve">{ "checkAccountPaymentEligibility": { "checkEligibilityInfo": { "checkModifyEligibilityInfo": { "paymentSourceId": "ABCHTPA" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "voucherNumber": "$VoucherNumber" } } }}</t>
+  </si>
+  <si>
+    <t>{ "queryAccountBasicInfo": { "info": { "ban": "$BAN" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "basicInfo": { "fetchBasicInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchExpandedBasicInfo": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchBillingAddressInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchBillingNameInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchHeaderInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchLockBoxInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchMailingAddressInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchOtherInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchOtherNameInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchSubscriberCountInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchShippingAddressInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchSplitBillInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchSecurityGroupInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "uaiInfo": { "fetchUaiInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "effectiveUaiInd": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchPersonalizationAttributeInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchMacInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "featureToggleInfoList": { "featureToggleInfo": [ { "featureToggleKey": "FETCHADDRESSID" } ] } }}</t>
+  </si>
+  <si>
+    <t>{ "querySubscriberServices": { "info": { "ptn": "$PTN" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "featureList": { "includeFutureDated": "false"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "featureListEnabled": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "ltsList": "false"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "m2HONumberInfo": { "includeExpired": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "includeFutureDated": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "m2HONumberInfoEnabled": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "socList": { "includeExpired": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "blockNumber": "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "socCode": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "socListEnabled": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "hybridGroupList": { "fetchHybridGroupList": "true" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchSubAttributeInfo": "true"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "featureToggleInfoList": { "featureToggleInfo": [ { "featureToggleKey": "SKIPPREFSERIALLOOKUP" } ] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchAdditionalInfoList": { "fetchAdditionalInfo": [ { "fetchAdditionalInfoKey": "SERIALNUMBERINFO" } ] } }}</t>
+  </si>
+  <si>
+    <t>{ "querySubscriberBasicInfo": { "info": { "mdn": "$PTN" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "fetchDetailInfo": true }}</t>
+  </si>
+  <si>
+    <t>148747413</t>
+  </si>
+  <si>
+    <t>149510681</t>
+  </si>
+  <si>
+    <t>146745019</t>
+  </si>
+  <si>
+    <t>147253016</t>
   </si>
 </sst>
 </file>
@@ -622,7 +1015,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +1059,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +1086,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +1126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,6 +1157,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1035,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:BE54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD15"/>
+      <selection activeCell="A2" sqref="A2:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,89 +1461,599 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>282</v>
+      </c>
+      <c r="H1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" t="s">
+        <v>289</v>
+      </c>
+      <c r="T1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" t="s">
+        <v>292</v>
+      </c>
+      <c r="W1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
         <v>193</v>
       </c>
-      <c r="B9" t="s">
-        <v>182</v>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1142,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD21"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,18 +2089,18 @@
         <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1186,7 +2108,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1197,10 +2119,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1208,10 +2130,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1219,12 +2141,203 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
         <v>133</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1232,9 +2345,13 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/payment-methods?isUsgBan=false&amp;isCheckAutoPayDiscount=true"/>
     <hyperlink ref="B4" r:id="rId2" display="https://st1-apiservices-web.test.sprint.com:7441/api/process/pay/v1/accounts/$BAN/future-payments?realTimeInd=false&amp;isUsgBan=false"/>
+    <hyperlink ref="B18" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1262,61 +2379,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1341,10 +2458,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1365,15 +2482,15 @@
         <v>1000</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1394,7 +2511,7 @@
         <v>1000</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1533,15 +2650,15 @@
         <v>1000</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1562,15 +2679,15 @@
         <v>1000</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1591,20 +2708,20 @@
         <v>1000</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1625,15 +2742,15 @@
         <v>1000</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1654,15 +2771,15 @@
         <v>1000</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1683,7 +2800,7 @@
         <v>1000</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,7 +2829,7 @@
         <v>1000</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1741,17 +2858,17 @@
         <v>1000</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,152 +2883,152 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +3052,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>GUIDELINES!#REF!</xm:f>
+            <xm:f>'Gudie Lines'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A7:A8</xm:sqref>
         </x14:dataValidation>
@@ -1988,15 +3105,15 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -2020,18 +3137,18 @@
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2052,15 +3169,15 @@
         <v>1000</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -2084,15 +3201,15 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -2116,21 +3233,21 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2151,18 +3268,18 @@
         <v>1000</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -2186,13 +3303,13 @@
         <v>1000</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
@@ -2240,15 +3357,15 @@
         <v>1000</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -2272,15 +3389,15 @@
         <v>1000</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -2304,12 +3421,12 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -2333,15 +3450,15 @@
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2362,12 +3479,12 @@
         <v>1000</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -2391,24 +3508,24 @@
         <v>1000</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,22 +3535,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2443,32 +3560,32 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2478,7 +3595,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2492,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,21 +3705,49 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
-        <v>44</v>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,32 +3769,32 @@
         <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2657,10 +3802,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2668,10 +3813,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2679,10 +3824,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2690,10 +3835,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2701,10 +3846,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2712,10 +3857,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2723,10 +3868,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2734,87 +3879,87 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>7</v>
@@ -2824,10 +3969,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>7</v>
@@ -2837,10 +3982,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>7</v>
@@ -2848,10 +3993,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2859,23 +4004,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2895,10 +4029,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,18 +4052,18 @@
         <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2937,7 +4071,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -2948,10 +4082,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2959,10 +4093,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2970,10 +4104,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2981,10 +4115,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2992,10 +4126,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -3003,10 +4137,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -3014,10 +4148,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -3025,87 +4159,87 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>7</v>
@@ -3115,10 +4249,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>7</v>
@@ -3128,10 +4262,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
         <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>164</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>7</v>
@@ -3139,10 +4273,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -3150,23 +4284,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3177,7 +4300,6 @@
     <hyperlink ref="B18" r:id="rId3"/>
     <hyperlink ref="B19" r:id="rId4"/>
     <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="B21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
